--- a/ApolloQA/Data/RatingManual/SC/VA00076.ClassCodeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00076.ClassCodeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00076.ClassCodeFactors" sheetId="1" r:id="Rc6b8cb44c8b7491d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00076.ClassCodeFactors" sheetId="1" r:id="R9180a183202f444d"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -23,7 +23,7 @@
         <x:v>401</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5628</x:v>
+        <x:v>0.7035</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -31,7 +31,7 @@
         <x:v>410</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.4957</x:v>
+        <x:v>0.6196</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -39,7 +39,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.5433</x:v>
+        <x:v>0.6791</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -47,7 +47,7 @@
         <x:v>420</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8294</x:v>
+        <x:v>1.0368</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -55,7 +55,7 @@
         <x:v>421</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8294</x:v>
+        <x:v>1.0368</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -63,7 +63,7 @@
         <x:v>422</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8294</x:v>
+        <x:v>1.0368</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -71,7 +71,7 @@
         <x:v>423</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8294</x:v>
+        <x:v>1.0368</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -79,7 +79,7 @@
         <x:v>424</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8294</x:v>
+        <x:v>1.0368</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -87,7 +87,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8294</x:v>
+        <x:v>1.0368</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -95,7 +95,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8294</x:v>
+        <x:v>1.0368</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -103,7 +103,7 @@
         <x:v>428</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8294</x:v>
+        <x:v>1.0368</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -111,7 +111,7 @@
         <x:v>429</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8294</x:v>
+        <x:v>1.0368</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -119,7 +119,7 @@
         <x:v>501</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7233</x:v>
+        <x:v>0.9041</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -127,7 +127,7 @@
         <x:v>502</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9505</x:v>
+        <x:v>1.1881</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -135,7 +135,7 @@
         <x:v>503</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9505</x:v>
+        <x:v>1.1881</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -143,7 +143,7 @@
         <x:v>505</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9915</x:v>
+        <x:v>1.2394</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -159,7 +159,7 @@
         <x:v>510</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8586</x:v>
+        <x:v>1.0733</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -167,7 +167,7 @@
         <x:v>515</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0769</x:v>
+        <x:v>1.3461</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -207,7 +207,7 @@
         <x:v>531</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9572</x:v>
+        <x:v>1.1965</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -247,7 +247,7 @@
         <x:v>563</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.7068</x:v>
+        <x:v>0.8835</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
